--- a/documentation/Time_sheet_Project3.xlsx
+++ b/documentation/Time_sheet_Project3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natem\Desktop\College\EECS_448\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2483F341-B45C-4586-9A6C-C228F67C0B22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DCEF11-CE47-486F-B743-56A8C0818EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{92084FA5-F7E5-449B-B234-E50689877C4D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Person</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>1:00(compilation)</t>
+  </si>
+  <si>
+    <t>1:30(Documentation)</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J10" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +543,9 @@
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/documentation/Time_sheet_Project3.xlsx
+++ b/documentation/Time_sheet_Project3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natem\Desktop\College\EECS_448\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DCEF11-CE47-486F-B743-56A8C0818EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D90B5A0-B9C1-46FD-91DF-CE9A285513CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{92084FA5-F7E5-449B-B234-E50689877C4D}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Time Spent</t>
   </si>
   <si>
-    <t>Total time spent=21 hours and 10 minutes.</t>
-  </si>
-  <si>
     <t>3:30(coding)</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>1:30(Documentation)</t>
+  </si>
+  <si>
+    <t>Total time spent=22 hours and 40 minutes.</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J11"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,22 +529,22 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -552,17 +552,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J3" s="1"/>
       <c r="L3" s="1"/>
@@ -572,14 +572,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -588,10 +588,10 @@
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -599,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
